--- a/app/src/pieces/excel/excel_templates/additional_service_template.xlsx
+++ b/app/src/pieces/excel/excel_templates/additional_service_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikitakhaurov/PycharmProjects/vzyat_tuzi.bez_shansov.nas_pyatero/app/src/pieces/excel/excel_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76D4ABF-AD6A-FB4F-BA6E-56BD8F4B683D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D107393-D21B-BA45-B197-36DC5C225966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{90E32486-2553-9042-B479-C88668FD0325}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>Средняя цена (в долларах)</t>
   </si>
   <si>
-    <t>Притон</t>
+    <t>Корпоративное такси</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
